--- a/Experiment 3/Trace Files/LatencyGraph.xlsx
+++ b/Experiment 3/Trace Files/LatencyGraph.xlsx
@@ -268,61 +268,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>22.259603603599999</c:v>
+                  <c:v>73.680941176499999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.8623298539</c:v>
+                  <c:v>64.992000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.242212766000002</c:v>
+                  <c:v>67.248000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.922349007299999</c:v>
+                  <c:v>65.361999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.9290733753</c:v>
+                  <c:v>65.37</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.922349007299999</c:v>
+                  <c:v>65.335999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.921573221799999</c:v>
+                  <c:v>65.325999999999993</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.9180020899</c:v>
+                  <c:v>65.31</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.916217573200001</c:v>
+                  <c:v>65.293999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.915769633499998</c:v>
+                  <c:v>65.286000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20.910861924700001</c:v>
+                  <c:v>65.262</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20.9103113898</c:v>
+                  <c:v>65.254000000000005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20.908425887300002</c:v>
+                  <c:v>65.248000000000005</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20.909403141399999</c:v>
+                  <c:v>65.249610062900004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20.907636363600002</c:v>
+                  <c:v>65.249610062900004</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.907636363600002</c:v>
+                  <c:v>65.241559748399993</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>20.9085188285</c:v>
+                  <c:v>65.249610062900004</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>20.907636363600002</c:v>
+                  <c:v>65.249610062900004</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>20.224</c:v>
+                  <c:v>65.248000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -428,55 +428,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="2">
-                  <c:v>21.984071588399999</c:v>
+                  <c:v>44.356094276100002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.750788912600001</c:v>
+                  <c:v>43.651884983999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.741455709699999</c:v>
+                  <c:v>43.6248205128</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.7415778252</c:v>
+                  <c:v>43.624281150199998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.741387406600001</c:v>
+                  <c:v>43.624615384599998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21.7412366738</c:v>
+                  <c:v>43.623258785899999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21.740704375699998</c:v>
+                  <c:v>43.622564102600002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21.7415778252</c:v>
+                  <c:v>43.624281150199998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21.741045891100001</c:v>
+                  <c:v>43.6235897436</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>21.7395309168</c:v>
+                  <c:v>43.618146964899999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21.742222222199999</c:v>
+                  <c:v>43.626666666699997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>21.741767838099999</c:v>
+                  <c:v>43.625303514400002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>21.742222222199999</c:v>
+                  <c:v>43.626666666699997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>21.741767838099999</c:v>
+                  <c:v>43.625303514400002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>21.742070437599999</c:v>
+                  <c:v>43.626666666699997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>21.741918976499999</c:v>
+                  <c:v>43.625303514400002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>21.6</c:v>
+                  <c:v>43.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -492,11 +492,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-104742480"/>
-        <c:axId val="-104734864"/>
+        <c:axId val="193698320"/>
+        <c:axId val="193706480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-104742480"/>
+        <c:axId val="193698320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -600,7 +600,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-104734864"/>
+        <c:crossAx val="193706480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -608,7 +608,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-104734864"/>
+        <c:axId val="193706480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="20"/>
@@ -716,7 +716,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-104742480"/>
+        <c:crossAx val="193698320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -972,61 +972,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>22.259603603599999</c:v>
+                  <c:v>73.680941176499999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.8623298539</c:v>
+                  <c:v>64.992000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.257751772999999</c:v>
+                  <c:v>67.444313725499995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.158678678699999</c:v>
+                  <c:v>66.4769655172</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.262222222199998</c:v>
+                  <c:v>67.054159291999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.980673774</c:v>
+                  <c:v>65.766233766200003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.9236865204</c:v>
+                  <c:v>65.356276729599998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.919455497400001</c:v>
+                  <c:v>65.342379746800006</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.918336468100001</c:v>
+                  <c:v>65.316025157200002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.916217573200001</c:v>
+                  <c:v>65.316025157200002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20.910861924700001</c:v>
+                  <c:v>65.281999999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20.910861924700001</c:v>
+                  <c:v>65.283823899400005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20.905964472299999</c:v>
+                  <c:v>65.259672956000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20.904626959200002</c:v>
+                  <c:v>65.251622641500006</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20.905085594999999</c:v>
+                  <c:v>65.249610062900004</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.903036649200001</c:v>
+                  <c:v>65.241559748399993</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>20.905964472299999</c:v>
+                  <c:v>65.249610062900004</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>20.905964472299999</c:v>
+                  <c:v>65.249610062900004</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>20.7150344828</c:v>
+                  <c:v>65.293176470600002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1132,55 +1132,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="2">
-                  <c:v>21.698426008999999</c:v>
+                  <c:v>43.496608108099998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.6951130064</c:v>
+                  <c:v>43.485035143799998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.884269518699998</c:v>
+                  <c:v>44.051897435900003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.783761702100001</c:v>
+                  <c:v>43.751872204500003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.7367521368</c:v>
+                  <c:v>43.610256410300003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21.7390415335</c:v>
+                  <c:v>43.6171246006</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21.736811099299999</c:v>
+                  <c:v>43.6108717949</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21.738371002099999</c:v>
+                  <c:v>43.614670926499997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21.7434529915</c:v>
+                  <c:v>43.630358974400004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>21.7378828541</c:v>
+                  <c:v>43.6136485623</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21.741059829099999</c:v>
+                  <c:v>43.623179487199998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>21.7406091587</c:v>
+                  <c:v>43.621827476</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>21.7396923077</c:v>
+                  <c:v>43.619076923100003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>21.743335463299999</c:v>
+                  <c:v>43.630006389800002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>21.7395432231</c:v>
+                  <c:v>43.619076923100003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>21.7415923159</c:v>
+                  <c:v>43.625230769200002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>21.610643923200001</c:v>
+                  <c:v>43.231897763600003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1196,11 +1196,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-104731600"/>
-        <c:axId val="-104741936"/>
+        <c:axId val="193699408"/>
+        <c:axId val="193705392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-104731600"/>
+        <c:axId val="193699408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1304,7 +1304,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-104741936"/>
+        <c:crossAx val="193705392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1312,7 +1312,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-104741936"/>
+        <c:axId val="193705392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="20"/>
@@ -1420,7 +1420,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-104731600"/>
+        <c:crossAx val="193699408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2946,7 +2946,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="D3" sqref="D3:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
@@ -2981,10 +2981,10 @@
         <v>0.5</v>
       </c>
       <c r="B3">
-        <v>22.259603603599999</v>
+        <v>73.680941176499999</v>
       </c>
       <c r="D3">
-        <v>22.259603603599999</v>
+        <v>73.680941176499999</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -2992,10 +2992,10 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>20.8623298539</v>
+        <v>64.992000000000004</v>
       </c>
       <c r="D4">
-        <v>20.8623298539</v>
+        <v>64.992000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -3003,16 +3003,16 @@
         <v>1.5</v>
       </c>
       <c r="B5">
-        <v>21.242212766000002</v>
+        <v>67.248000000000005</v>
       </c>
       <c r="C5">
-        <v>21.984071588399999</v>
+        <v>44.356094276100002</v>
       </c>
       <c r="D5">
-        <v>21.257751772999999</v>
+        <v>67.444313725499995</v>
       </c>
       <c r="E5">
-        <v>21.698426008999999</v>
+        <v>43.496608108099998</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -3020,16 +3020,16 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>20.922349007299999</v>
+        <v>65.361999999999995</v>
       </c>
       <c r="C6">
-        <v>21.750788912600001</v>
+        <v>43.651884983999999</v>
       </c>
       <c r="D6">
-        <v>21.158678678699999</v>
+        <v>66.4769655172</v>
       </c>
       <c r="E6">
-        <v>21.6951130064</v>
+        <v>43.485035143799998</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -3037,16 +3037,16 @@
         <v>2.5</v>
       </c>
       <c r="B7">
-        <v>20.9290733753</v>
+        <v>65.37</v>
       </c>
       <c r="C7">
-        <v>21.741455709699999</v>
+        <v>43.6248205128</v>
       </c>
       <c r="D7">
-        <v>21.262222222199998</v>
+        <v>67.054159291999994</v>
       </c>
       <c r="E7">
-        <v>21.884269518699998</v>
+        <v>44.051897435900003</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -3054,16 +3054,16 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>20.922349007299999</v>
+        <v>65.335999999999999</v>
       </c>
       <c r="C8">
-        <v>21.7415778252</v>
+        <v>43.624281150199998</v>
       </c>
       <c r="D8">
-        <v>20.980673774</v>
+        <v>65.766233766200003</v>
       </c>
       <c r="E8">
-        <v>21.783761702100001</v>
+        <v>43.751872204500003</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -3071,16 +3071,16 @@
         <v>3.5</v>
       </c>
       <c r="B9">
-        <v>20.921573221799999</v>
+        <v>65.325999999999993</v>
       </c>
       <c r="C9">
-        <v>21.741387406600001</v>
+        <v>43.624615384599998</v>
       </c>
       <c r="D9">
-        <v>20.9236865204</v>
+        <v>65.356276729599998</v>
       </c>
       <c r="E9">
-        <v>21.7367521368</v>
+        <v>43.610256410300003</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -3088,16 +3088,16 @@
         <v>4</v>
       </c>
       <c r="B10">
-        <v>20.9180020899</v>
+        <v>65.31</v>
       </c>
       <c r="C10">
-        <v>21.7412366738</v>
+        <v>43.623258785899999</v>
       </c>
       <c r="D10">
-        <v>20.919455497400001</v>
+        <v>65.342379746800006</v>
       </c>
       <c r="E10">
-        <v>21.7390415335</v>
+        <v>43.6171246006</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -3105,16 +3105,16 @@
         <v>4.5</v>
       </c>
       <c r="B11">
-        <v>20.916217573200001</v>
+        <v>65.293999999999997</v>
       </c>
       <c r="C11">
-        <v>21.740704375699998</v>
+        <v>43.622564102600002</v>
       </c>
       <c r="D11">
-        <v>20.918336468100001</v>
+        <v>65.316025157200002</v>
       </c>
       <c r="E11">
-        <v>21.736811099299999</v>
+        <v>43.6108717949</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -3122,16 +3122,16 @@
         <v>5</v>
       </c>
       <c r="B12">
-        <v>20.915769633499998</v>
+        <v>65.286000000000001</v>
       </c>
       <c r="C12">
-        <v>21.7415778252</v>
+        <v>43.624281150199998</v>
       </c>
       <c r="D12">
-        <v>20.916217573200001</v>
+        <v>65.316025157200002</v>
       </c>
       <c r="E12">
-        <v>21.738371002099999</v>
+        <v>43.614670926499997</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -3139,16 +3139,16 @@
         <v>5.5</v>
       </c>
       <c r="B13">
-        <v>20.910861924700001</v>
+        <v>65.262</v>
       </c>
       <c r="C13">
-        <v>21.741045891100001</v>
+        <v>43.6235897436</v>
       </c>
       <c r="D13">
-        <v>20.910861924700001</v>
+        <v>65.281999999999996</v>
       </c>
       <c r="E13">
-        <v>21.7434529915</v>
+        <v>43.630358974400004</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -3156,16 +3156,16 @@
         <v>6</v>
       </c>
       <c r="B14">
-        <v>20.9103113898</v>
+        <v>65.254000000000005</v>
       </c>
       <c r="C14">
-        <v>21.7395309168</v>
+        <v>43.618146964899999</v>
       </c>
       <c r="D14">
-        <v>20.910861924700001</v>
+        <v>65.283823899400005</v>
       </c>
       <c r="E14">
-        <v>21.7378828541</v>
+        <v>43.6136485623</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -3173,16 +3173,16 @@
         <v>6.5</v>
       </c>
       <c r="B15">
-        <v>20.908425887300002</v>
+        <v>65.248000000000005</v>
       </c>
       <c r="C15">
-        <v>21.742222222199999</v>
+        <v>43.626666666699997</v>
       </c>
       <c r="D15">
-        <v>20.905964472299999</v>
+        <v>65.259672956000003</v>
       </c>
       <c r="E15">
-        <v>21.741059829099999</v>
+        <v>43.623179487199998</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -3190,16 +3190,16 @@
         <v>7</v>
       </c>
       <c r="B16">
-        <v>20.909403141399999</v>
+        <v>65.249610062900004</v>
       </c>
       <c r="C16">
-        <v>21.741767838099999</v>
+        <v>43.625303514400002</v>
       </c>
       <c r="D16">
-        <v>20.904626959200002</v>
+        <v>65.251622641500006</v>
       </c>
       <c r="E16">
-        <v>21.7406091587</v>
+        <v>43.621827476</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -3207,16 +3207,16 @@
         <v>7.5</v>
       </c>
       <c r="B17">
-        <v>20.907636363600002</v>
+        <v>65.249610062900004</v>
       </c>
       <c r="C17">
-        <v>21.742222222199999</v>
+        <v>43.626666666699997</v>
       </c>
       <c r="D17">
-        <v>20.905085594999999</v>
+        <v>65.249610062900004</v>
       </c>
       <c r="E17">
-        <v>21.7396923077</v>
+        <v>43.619076923100003</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -3224,16 +3224,16 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <v>20.907636363600002</v>
+        <v>65.241559748399993</v>
       </c>
       <c r="C18">
-        <v>21.741767838099999</v>
+        <v>43.625303514400002</v>
       </c>
       <c r="D18">
-        <v>20.903036649200001</v>
+        <v>65.241559748399993</v>
       </c>
       <c r="E18">
-        <v>21.743335463299999</v>
+        <v>43.630006389800002</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -3241,16 +3241,16 @@
         <v>8.5</v>
       </c>
       <c r="B19">
-        <v>20.9085188285</v>
+        <v>65.249610062900004</v>
       </c>
       <c r="C19">
-        <v>21.742070437599999</v>
+        <v>43.626666666699997</v>
       </c>
       <c r="D19">
-        <v>20.905964472299999</v>
+        <v>65.249610062900004</v>
       </c>
       <c r="E19">
-        <v>21.7395432231</v>
+        <v>43.619076923100003</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -3258,16 +3258,16 @@
         <v>9</v>
       </c>
       <c r="B20">
-        <v>20.907636363600002</v>
+        <v>65.249610062900004</v>
       </c>
       <c r="C20">
-        <v>21.741918976499999</v>
+        <v>43.625303514400002</v>
       </c>
       <c r="D20">
-        <v>20.905964472299999</v>
+        <v>65.249610062900004</v>
       </c>
       <c r="E20">
-        <v>21.7415923159</v>
+        <v>43.625230769200002</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -3275,16 +3275,16 @@
         <v>9.5</v>
       </c>
       <c r="B21">
-        <v>20.224</v>
+        <v>65.248000000000005</v>
       </c>
       <c r="C21">
-        <v>21.6</v>
+        <v>43.2</v>
       </c>
       <c r="D21">
-        <v>20.7150344828</v>
+        <v>65.293176470600002</v>
       </c>
       <c r="E21">
-        <v>21.610643923200001</v>
+        <v>43.231897763600003</v>
       </c>
     </row>
   </sheetData>

--- a/Experiment 3/Trace Files/LatencyGraph.xlsx
+++ b/Experiment 3/Trace Files/LatencyGraph.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
-  <si>
-    <t>CBR</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>DropTail</t>
   </si>
@@ -38,7 +35,16 @@
     <t>RED</t>
   </si>
   <si>
-    <t>TCP</t>
+    <t>DropTail TCP</t>
+  </si>
+  <si>
+    <t>DropTail CBR</t>
+  </si>
+  <si>
+    <t>RED TCP</t>
+  </si>
+  <si>
+    <t>RED CBR</t>
   </si>
 </sst>
 </file>
@@ -128,7 +134,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Experiment 3: DropTail Latency</a:t>
+              <a:t>Experiment 3: Latency</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -178,7 +184,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TCP</c:v>
+                  <c:v>DropTail TCP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -274,55 +280,55 @@
                   <c:v>64.992000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>67.248000000000005</c:v>
+                  <c:v>64.992000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>65.361999999999995</c:v>
+                  <c:v>64.992000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>65.37</c:v>
+                  <c:v>64.992000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>65.335999999999999</c:v>
+                  <c:v>64.992000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>64.992000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64.992000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64.992000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64.992000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>67.150000000000006</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>65.353999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65.337999999999994</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65.33</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>65.325999999999993</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>65.31</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>65.293999999999997</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="15">
+                  <c:v>65.317999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65.302000000000007</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>65.286000000000001</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>65.262</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>65.254000000000005</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>65.248000000000005</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>65.249610062900004</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>65.249610062900004</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>65.241559748399993</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>65.249610062900004</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>65.249610062900004</c:v>
-                </c:pt>
                 <c:pt idx="18">
-                  <c:v>65.248000000000005</c:v>
+                  <c:v>65.311999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -338,7 +344,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CBR</c:v>
+                  <c:v>DropTail CBR</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -427,56 +433,322 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
+                <c:pt idx="10">
+                  <c:v>44.392590603999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43.624281150199998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43.619487179499998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43.622236421700002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43.622564102600002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43.613035143799998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43.622564102600002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43.622236421700002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43.2106666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RED TCP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>44.356094276100002</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43.651884983999999</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43.6248205128</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>73.680941176499999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.992000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.992000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64.992000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64.992000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64.992000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.992000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64.992000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64.992000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64.992000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>68.795464285700007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>67.262967741899999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65.7196</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65.358000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>65.341999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>65.325999999999993</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65.317999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>65.297822784800005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>65.311999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RED CBR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="10">
+                  <c:v>44.008158075600001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44.076984025599998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43.761230769199997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43.613035143799998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43.622564102600002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43.622236421700002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43.619487179499998</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>43.624281150199998</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>43.624615384599998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43.623258785899999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43.622564102600002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43.624281150199998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43.6235897436</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43.618146964899999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>43.626666666699997</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43.625303514400002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>43.626666666699997</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>43.625303514400002</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>43.626666666699997</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>43.625303514400002</c:v>
-                </c:pt>
                 <c:pt idx="18">
-                  <c:v>43.2</c:v>
+                  <c:v>43.205333333299997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -492,11 +764,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="193698320"/>
-        <c:axId val="193706480"/>
+        <c:axId val="-1647717648"/>
+        <c:axId val="-1813296224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="193698320"/>
+        <c:axId val="-1647717648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -600,7 +872,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193706480"/>
+        <c:crossAx val="-1813296224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -608,10 +880,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="193706480"/>
+        <c:axId val="-1813296224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="20"/>
+          <c:max val="75"/>
+          <c:min val="40"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -716,711 +989,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193698320"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Experiment 3: RED Latency</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>TCP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$3:$A$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8.5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>9.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$3:$D$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>73.680941176499999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64.992000000000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>67.444313725499995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>66.4769655172</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>67.054159291999994</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>65.766233766200003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>65.356276729599998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>65.342379746800006</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>65.316025157200002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>65.316025157200002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>65.281999999999996</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>65.283823899400005</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>65.259672956000003</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>65.251622641500006</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>65.249610062900004</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>65.241559748399993</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>65.249610062900004</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>65.249610062900004</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>65.293176470600002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CBR</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$3:$A$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8.5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>9.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$3:$E$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="2">
-                  <c:v>43.496608108099998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43.485035143799998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44.051897435900003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43.751872204500003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43.610256410300003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43.6171246006</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43.6108717949</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43.614670926499997</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43.630358974400004</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43.6136485623</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>43.623179487199998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43.621827476</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>43.619076923100003</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>43.630006389800002</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>43.619076923100003</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>43.625230769200002</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>43.231897763600003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="193699408"/>
-        <c:axId val="193705392"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="193699408"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Time</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> (s)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="193705392"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="193705392"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="20"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Round Trip Time (ms)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="193699408"/>
+        <c:crossAx val="-1647717648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1541,46 +1110,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2097,536 +1626,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>472567</xdr:colOff>
+      <xdr:colOff>311201</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>80681</xdr:rowOff>
+      <xdr:rowOff>142153</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>126785</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>57629</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>253573</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>15368</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2640,38 +1653,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>468727</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>84524</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>122945</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>61472</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2946,34 +1927,34 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D21"/>
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -3003,16 +1984,10 @@
         <v>1.5</v>
       </c>
       <c r="B5">
-        <v>67.248000000000005</v>
-      </c>
-      <c r="C5">
-        <v>44.356094276100002</v>
+        <v>64.992000000000004</v>
       </c>
       <c r="D5">
-        <v>67.444313725499995</v>
-      </c>
-      <c r="E5">
-        <v>43.496608108099998</v>
+        <v>64.992000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -3020,16 +1995,10 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>65.361999999999995</v>
-      </c>
-      <c r="C6">
-        <v>43.651884983999999</v>
+        <v>64.992000000000004</v>
       </c>
       <c r="D6">
-        <v>66.4769655172</v>
-      </c>
-      <c r="E6">
-        <v>43.485035143799998</v>
+        <v>64.992000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -3037,16 +2006,10 @@
         <v>2.5</v>
       </c>
       <c r="B7">
-        <v>65.37</v>
-      </c>
-      <c r="C7">
-        <v>43.6248205128</v>
+        <v>64.992000000000004</v>
       </c>
       <c r="D7">
-        <v>67.054159291999994</v>
-      </c>
-      <c r="E7">
-        <v>44.051897435900003</v>
+        <v>64.992000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -3054,16 +2017,10 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>65.335999999999999</v>
-      </c>
-      <c r="C8">
-        <v>43.624281150199998</v>
+        <v>64.992000000000004</v>
       </c>
       <c r="D8">
-        <v>65.766233766200003</v>
-      </c>
-      <c r="E8">
-        <v>43.751872204500003</v>
+        <v>64.992000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -3071,16 +2028,10 @@
         <v>3.5</v>
       </c>
       <c r="B9">
-        <v>65.325999999999993</v>
-      </c>
-      <c r="C9">
-        <v>43.624615384599998</v>
+        <v>64.992000000000004</v>
       </c>
       <c r="D9">
-        <v>65.356276729599998</v>
-      </c>
-      <c r="E9">
-        <v>43.610256410300003</v>
+        <v>64.992000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -3088,16 +2039,10 @@
         <v>4</v>
       </c>
       <c r="B10">
-        <v>65.31</v>
-      </c>
-      <c r="C10">
-        <v>43.623258785899999</v>
+        <v>64.992000000000004</v>
       </c>
       <c r="D10">
-        <v>65.342379746800006</v>
-      </c>
-      <c r="E10">
-        <v>43.6171246006</v>
+        <v>64.992000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -3105,16 +2050,10 @@
         <v>4.5</v>
       </c>
       <c r="B11">
-        <v>65.293999999999997</v>
-      </c>
-      <c r="C11">
-        <v>43.622564102600002</v>
+        <v>64.992000000000004</v>
       </c>
       <c r="D11">
-        <v>65.316025157200002</v>
-      </c>
-      <c r="E11">
-        <v>43.6108717949</v>
+        <v>64.992000000000004</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -3122,16 +2061,10 @@
         <v>5</v>
       </c>
       <c r="B12">
-        <v>65.286000000000001</v>
-      </c>
-      <c r="C12">
-        <v>43.624281150199998</v>
+        <v>64.992000000000004</v>
       </c>
       <c r="D12">
-        <v>65.316025157200002</v>
-      </c>
-      <c r="E12">
-        <v>43.614670926499997</v>
+        <v>64.992000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -3139,16 +2072,16 @@
         <v>5.5</v>
       </c>
       <c r="B13">
-        <v>65.262</v>
+        <v>67.150000000000006</v>
       </c>
       <c r="C13">
-        <v>43.6235897436</v>
+        <v>44.392590603999999</v>
       </c>
       <c r="D13">
-        <v>65.281999999999996</v>
+        <v>68.795464285700007</v>
       </c>
       <c r="E13">
-        <v>43.630358974400004</v>
+        <v>44.008158075600001</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -3156,16 +2089,16 @@
         <v>6</v>
       </c>
       <c r="B14">
-        <v>65.254000000000005</v>
+        <v>65.353999999999999</v>
       </c>
       <c r="C14">
-        <v>43.618146964899999</v>
+        <v>43.624281150199998</v>
       </c>
       <c r="D14">
-        <v>65.283823899400005</v>
+        <v>67.262967741899999</v>
       </c>
       <c r="E14">
-        <v>43.6136485623</v>
+        <v>44.076984025599998</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -3173,16 +2106,16 @@
         <v>6.5</v>
       </c>
       <c r="B15">
-        <v>65.248000000000005</v>
+        <v>65.337999999999994</v>
       </c>
       <c r="C15">
-        <v>43.626666666699997</v>
+        <v>43.619487179499998</v>
       </c>
       <c r="D15">
-        <v>65.259672956000003</v>
+        <v>65.7196</v>
       </c>
       <c r="E15">
-        <v>43.623179487199998</v>
+        <v>43.761230769199997</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -3190,16 +2123,16 @@
         <v>7</v>
       </c>
       <c r="B16">
-        <v>65.249610062900004</v>
+        <v>65.33</v>
       </c>
       <c r="C16">
-        <v>43.625303514400002</v>
+        <v>43.622236421700002</v>
       </c>
       <c r="D16">
-        <v>65.251622641500006</v>
+        <v>65.358000000000004</v>
       </c>
       <c r="E16">
-        <v>43.621827476</v>
+        <v>43.613035143799998</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -3207,16 +2140,16 @@
         <v>7.5</v>
       </c>
       <c r="B17">
-        <v>65.249610062900004</v>
+        <v>65.325999999999993</v>
       </c>
       <c r="C17">
-        <v>43.626666666699997</v>
+        <v>43.622564102600002</v>
       </c>
       <c r="D17">
-        <v>65.249610062900004</v>
+        <v>65.341999999999999</v>
       </c>
       <c r="E17">
-        <v>43.619076923100003</v>
+        <v>43.622564102600002</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -3224,16 +2157,16 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <v>65.241559748399993</v>
+        <v>65.317999999999998</v>
       </c>
       <c r="C18">
-        <v>43.625303514400002</v>
+        <v>43.613035143799998</v>
       </c>
       <c r="D18">
-        <v>65.241559748399993</v>
+        <v>65.325999999999993</v>
       </c>
       <c r="E18">
-        <v>43.630006389800002</v>
+        <v>43.622236421700002</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -3241,16 +2174,16 @@
         <v>8.5</v>
       </c>
       <c r="B19">
-        <v>65.249610062900004</v>
+        <v>65.302000000000007</v>
       </c>
       <c r="C19">
-        <v>43.626666666699997</v>
+        <v>43.622564102600002</v>
       </c>
       <c r="D19">
-        <v>65.249610062900004</v>
+        <v>65.317999999999998</v>
       </c>
       <c r="E19">
-        <v>43.619076923100003</v>
+        <v>43.619487179499998</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -3258,16 +2191,16 @@
         <v>9</v>
       </c>
       <c r="B20">
-        <v>65.249610062900004</v>
+        <v>65.286000000000001</v>
       </c>
       <c r="C20">
-        <v>43.625303514400002</v>
+        <v>43.622236421700002</v>
       </c>
       <c r="D20">
-        <v>65.249610062900004</v>
+        <v>65.297822784800005</v>
       </c>
       <c r="E20">
-        <v>43.625230769200002</v>
+        <v>43.624281150199998</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -3275,16 +2208,16 @@
         <v>9.5</v>
       </c>
       <c r="B21">
-        <v>65.248000000000005</v>
+        <v>65.311999999999998</v>
       </c>
       <c r="C21">
-        <v>43.2</v>
+        <v>43.2106666667</v>
       </c>
       <c r="D21">
-        <v>65.293176470600002</v>
+        <v>65.311999999999998</v>
       </c>
       <c r="E21">
-        <v>43.231897763600003</v>
+        <v>43.205333333299997</v>
       </c>
     </row>
   </sheetData>

--- a/Experiment 3/Trace Files/LatencyGraph.xlsx
+++ b/Experiment 3/Trace Files/LatencyGraph.xlsx
@@ -304,31 +304,31 @@
                   <c:v>64.992000000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>67.150000000000006</c:v>
+                  <c:v>70.568897959200001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>65.353999999999999</c:v>
+                  <c:v>70.546653061200004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>65.337999999999994</c:v>
+                  <c:v>70.660542372899997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>65.33</c:v>
+                  <c:v>74.249615384600006</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>65.325999999999993</c:v>
+                  <c:v>69.529872340400004</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>65.317999999999998</c:v>
+                  <c:v>74.308866666699998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>65.302000000000007</c:v>
+                  <c:v>68.903405405399994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>65.286000000000001</c:v>
+                  <c:v>73.655857142900004</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>65.311999999999998</c:v>
+                  <c:v>67.229333333300005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -434,31 +434,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="10">
-                  <c:v>44.392590603999999</c:v>
+                  <c:v>45.822161958599999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43.624281150199998</c:v>
+                  <c:v>47.533838420099997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43.619487179499998</c:v>
+                  <c:v>48.4286631206</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43.622236421700002</c:v>
+                  <c:v>47.184293805300001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43.622564102600002</c:v>
+                  <c:v>46.453232142899999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43.613035143799998</c:v>
+                  <c:v>47.924640707999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43.622564102600002</c:v>
+                  <c:v>45.279268817199998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43.622236421700002</c:v>
+                  <c:v>49.203442680800002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43.2106666667</c:v>
+                  <c:v>43.261865008900003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -594,31 +594,31 @@
                   <c:v>64.992000000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>68.795464285700007</c:v>
+                  <c:v>67.692279069799994</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>67.262967741899999</c:v>
+                  <c:v>69.2539428571</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>65.7196</c:v>
+                  <c:v>69.231428571400002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>65.358000000000004</c:v>
+                  <c:v>68.752044444399999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>65.341999999999999</c:v>
+                  <c:v>68.2470434783</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>65.325999999999993</c:v>
+                  <c:v>68.390897959200004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>65.317999999999998</c:v>
+                  <c:v>68.854666666699998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>65.297822784800005</c:v>
+                  <c:v>68.248086956500003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>65.311999999999998</c:v>
+                  <c:v>69.239142857100006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -724,31 +724,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="10">
-                  <c:v>44.008158075600001</c:v>
+                  <c:v>44.0645423729</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44.076984025599998</c:v>
+                  <c:v>44.7485981982</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43.761230769199997</c:v>
+                  <c:v>46.103942652299999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43.613035143799998</c:v>
+                  <c:v>45.807056939500001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43.622564102600002</c:v>
+                  <c:v>44.259473309599997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43.622236421700002</c:v>
+                  <c:v>45.680060822900003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43.619487179499998</c:v>
+                  <c:v>45.554205309700002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43.624281150199998</c:v>
+                  <c:v>44.315210714300001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43.205333333299997</c:v>
+                  <c:v>43.499769503499998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -764,11 +764,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1647717648"/>
-        <c:axId val="-1813296224"/>
+        <c:axId val="139758816"/>
+        <c:axId val="139758272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1647717648"/>
+        <c:axId val="139758816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -872,7 +872,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1813296224"/>
+        <c:crossAx val="139758272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -880,7 +880,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1813296224"/>
+        <c:axId val="139758272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="75"/>
@@ -989,7 +989,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1647717648"/>
+        <c:crossAx val="139758816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1636,10 +1636,10 @@
       <xdr:rowOff>142153</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>253573</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>15368</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>368834</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>84524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1927,7 +1927,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
@@ -2072,16 +2072,16 @@
         <v>5.5</v>
       </c>
       <c r="B13">
-        <v>67.150000000000006</v>
+        <v>70.568897959200001</v>
       </c>
       <c r="C13">
-        <v>44.392590603999999</v>
+        <v>45.822161958599999</v>
       </c>
       <c r="D13">
-        <v>68.795464285700007</v>
+        <v>67.692279069799994</v>
       </c>
       <c r="E13">
-        <v>44.008158075600001</v>
+        <v>44.0645423729</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -2089,16 +2089,16 @@
         <v>6</v>
       </c>
       <c r="B14">
-        <v>65.353999999999999</v>
+        <v>70.546653061200004</v>
       </c>
       <c r="C14">
-        <v>43.624281150199998</v>
+        <v>47.533838420099997</v>
       </c>
       <c r="D14">
-        <v>67.262967741899999</v>
+        <v>69.2539428571</v>
       </c>
       <c r="E14">
-        <v>44.076984025599998</v>
+        <v>44.7485981982</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -2106,16 +2106,16 @@
         <v>6.5</v>
       </c>
       <c r="B15">
-        <v>65.337999999999994</v>
+        <v>70.660542372899997</v>
       </c>
       <c r="C15">
-        <v>43.619487179499998</v>
+        <v>48.4286631206</v>
       </c>
       <c r="D15">
-        <v>65.7196</v>
+        <v>69.231428571400002</v>
       </c>
       <c r="E15">
-        <v>43.761230769199997</v>
+        <v>46.103942652299999</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -2123,16 +2123,16 @@
         <v>7</v>
       </c>
       <c r="B16">
-        <v>65.33</v>
+        <v>74.249615384600006</v>
       </c>
       <c r="C16">
-        <v>43.622236421700002</v>
+        <v>47.184293805300001</v>
       </c>
       <c r="D16">
-        <v>65.358000000000004</v>
+        <v>68.752044444399999</v>
       </c>
       <c r="E16">
-        <v>43.613035143799998</v>
+        <v>45.807056939500001</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -2140,16 +2140,16 @@
         <v>7.5</v>
       </c>
       <c r="B17">
-        <v>65.325999999999993</v>
+        <v>69.529872340400004</v>
       </c>
       <c r="C17">
-        <v>43.622564102600002</v>
+        <v>46.453232142899999</v>
       </c>
       <c r="D17">
-        <v>65.341999999999999</v>
+        <v>68.2470434783</v>
       </c>
       <c r="E17">
-        <v>43.622564102600002</v>
+        <v>44.259473309599997</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -2157,16 +2157,16 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <v>65.317999999999998</v>
+        <v>74.308866666699998</v>
       </c>
       <c r="C18">
-        <v>43.613035143799998</v>
+        <v>47.924640707999998</v>
       </c>
       <c r="D18">
-        <v>65.325999999999993</v>
+        <v>68.390897959200004</v>
       </c>
       <c r="E18">
-        <v>43.622236421700002</v>
+        <v>45.680060822900003</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -2174,16 +2174,16 @@
         <v>8.5</v>
       </c>
       <c r="B19">
-        <v>65.302000000000007</v>
+        <v>68.903405405399994</v>
       </c>
       <c r="C19">
-        <v>43.622564102600002</v>
+        <v>45.279268817199998</v>
       </c>
       <c r="D19">
-        <v>65.317999999999998</v>
+        <v>68.854666666699998</v>
       </c>
       <c r="E19">
-        <v>43.619487179499998</v>
+        <v>45.554205309700002</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -2191,16 +2191,16 @@
         <v>9</v>
       </c>
       <c r="B20">
-        <v>65.286000000000001</v>
+        <v>73.655857142900004</v>
       </c>
       <c r="C20">
-        <v>43.622236421700002</v>
+        <v>49.203442680800002</v>
       </c>
       <c r="D20">
-        <v>65.297822784800005</v>
+        <v>68.248086956500003</v>
       </c>
       <c r="E20">
-        <v>43.624281150199998</v>
+        <v>44.315210714300001</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -2208,16 +2208,16 @@
         <v>9.5</v>
       </c>
       <c r="B21">
-        <v>65.311999999999998</v>
+        <v>67.229333333300005</v>
       </c>
       <c r="C21">
-        <v>43.2106666667</v>
+        <v>43.261865008900003</v>
       </c>
       <c r="D21">
-        <v>65.311999999999998</v>
+        <v>69.239142857100006</v>
       </c>
       <c r="E21">
-        <v>43.205333333299997</v>
+        <v>43.499769503499998</v>
       </c>
     </row>
   </sheetData>
